--- a/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
+++ b/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
@@ -49386,7 +49386,9 @@
       <c r="P923" t="n">
         <v>0</v>
       </c>
-      <c r="Q923" t="inlineStr"/>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
+++ b/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
@@ -52213,7 +52213,9 @@
       <c r="Q924" t="n">
         <v>2</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
+++ b/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R924"/>
+  <dimension ref="A1:R926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52217,6 +52217,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B925" t="n">
+        <v>83.72000122070312</v>
+      </c>
+      <c r="C925" t="n">
+        <v>88.40000152587891</v>
+      </c>
+      <c r="D925" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="E925" t="n">
+        <v>83.29000091552734</v>
+      </c>
+      <c r="F925" t="n">
+        <v>83.29000091552734</v>
+      </c>
+      <c r="G925" t="n">
+        <v>27380102</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>6</v>
+      </c>
+      <c r="J925" t="n">
+        <v>17</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>25</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B926" t="n">
+        <v>83.31999969482422</v>
+      </c>
+      <c r="C926" t="n">
+        <v>89.58999633789062</v>
+      </c>
+      <c r="D926" t="n">
+        <v>82.05000305175781</v>
+      </c>
+      <c r="E926" t="n">
+        <v>87.55999755859375</v>
+      </c>
+      <c r="F926" t="n">
+        <v>87.55999755859375</v>
+      </c>
+      <c r="G926" t="n">
+        <v>20958645</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>6</v>
+      </c>
+      <c r="J926" t="n">
+        <v>24</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>26</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
+++ b/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R926"/>
+  <dimension ref="A1:R961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -52149,7 +52149,7 @@
         <v>23</v>
       </c>
       <c r="O923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P923" t="n">
         <v>0</v>
@@ -52269,7 +52269,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -52323,7 +52325,1829 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B927" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="C927" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="D927" t="n">
+        <v>87.11000061035156</v>
+      </c>
+      <c r="E927" t="n">
+        <v>98.23999786376953</v>
+      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="n">
+        <v>25867082</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>7</v>
+      </c>
+      <c r="J927" t="n">
+        <v>1</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>27</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B928" t="n">
+        <v>100</v>
+      </c>
+      <c r="C928" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="D928" t="n">
+        <v>92</v>
+      </c>
+      <c r="E928" t="n">
+        <v>94.05999755859375</v>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="n">
+        <v>25305928</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>7</v>
+      </c>
+      <c r="J928" t="n">
+        <v>8</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>28</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B929" t="n">
+        <v>94.19999694824219</v>
+      </c>
+      <c r="C929" t="n">
+        <v>101.7300033569336</v>
+      </c>
+      <c r="D929" t="n">
+        <v>91.58999633789062</v>
+      </c>
+      <c r="E929" t="n">
+        <v>93.98000335693359</v>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="n">
+        <v>25084684</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I929" t="n">
+        <v>7</v>
+      </c>
+      <c r="J929" t="n">
+        <v>15</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>29</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>1</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B930" t="n">
+        <v>92.55999755859375</v>
+      </c>
+      <c r="C930" t="n">
+        <v>105.3000030517578</v>
+      </c>
+      <c r="D930" t="n">
+        <v>89.91000366210938</v>
+      </c>
+      <c r="E930" t="n">
+        <v>102.7799987792969</v>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="n">
+        <v>20817266</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I930" t="n">
+        <v>7</v>
+      </c>
+      <c r="J930" t="n">
+        <v>22</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>30</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B931" t="n">
+        <v>103.3600006103516</v>
+      </c>
+      <c r="C931" t="n">
+        <v>106.0599975585938</v>
+      </c>
+      <c r="D931" t="n">
+        <v>101.5999984741211</v>
+      </c>
+      <c r="E931" t="n">
+        <v>103.3099975585938</v>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="n">
+        <v>14947432</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I931" t="n">
+        <v>7</v>
+      </c>
+      <c r="J931" t="n">
+        <v>29</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>31</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B932" t="n">
+        <v>98.98999786376953</v>
+      </c>
+      <c r="C932" t="n">
+        <v>102.1900024414062</v>
+      </c>
+      <c r="D932" t="n">
+        <v>95.05999755859375</v>
+      </c>
+      <c r="E932" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="n">
+        <v>19080751</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I932" t="n">
+        <v>8</v>
+      </c>
+      <c r="J932" t="n">
+        <v>5</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>32</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B933" t="n">
+        <v>97.01000213623047</v>
+      </c>
+      <c r="C933" t="n">
+        <v>97.73999786376953</v>
+      </c>
+      <c r="D933" t="n">
+        <v>89.87000274658203</v>
+      </c>
+      <c r="E933" t="n">
+        <v>90.77999877929688</v>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="n">
+        <v>8421134</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I933" t="n">
+        <v>8</v>
+      </c>
+      <c r="J933" t="n">
+        <v>12</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>33</v>
+      </c>
+      <c r="O933" t="n">
+        <v>2</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B934" t="n">
+        <v>92.15000152587891</v>
+      </c>
+      <c r="C934" t="n">
+        <v>96.19999694824219</v>
+      </c>
+      <c r="D934" t="n">
+        <v>91.09999847412109</v>
+      </c>
+      <c r="E934" t="n">
+        <v>91.72000122070312</v>
+      </c>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="n">
+        <v>16875325</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I934" t="n">
+        <v>8</v>
+      </c>
+      <c r="J934" t="n">
+        <v>19</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>34</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B935" t="n">
+        <v>93.05000305175781</v>
+      </c>
+      <c r="C935" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="D935" t="n">
+        <v>92.30999755859375</v>
+      </c>
+      <c r="E935" t="n">
+        <v>106.5899963378906</v>
+      </c>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="n">
+        <v>142139820</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I935" t="n">
+        <v>8</v>
+      </c>
+      <c r="J935" t="n">
+        <v>26</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>35</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B936" t="n">
+        <v>106.1500015258789</v>
+      </c>
+      <c r="C936" t="n">
+        <v>133.7400054931641</v>
+      </c>
+      <c r="D936" t="n">
+        <v>106.0899963378906</v>
+      </c>
+      <c r="E936" t="n">
+        <v>124.2200012207031</v>
+      </c>
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="n">
+        <v>232425046</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I936" t="n">
+        <v>9</v>
+      </c>
+      <c r="J936" t="n">
+        <v>2</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>36</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B937" t="n">
+        <v>124.8000030517578</v>
+      </c>
+      <c r="C937" t="n">
+        <v>134.4900054931641</v>
+      </c>
+      <c r="D937" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="E937" t="n">
+        <v>129.3699951171875</v>
+      </c>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="n">
+        <v>120012907</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I937" t="n">
+        <v>9</v>
+      </c>
+      <c r="J937" t="n">
+        <v>9</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>37</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B938" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="C938" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="D938" t="n">
+        <v>120.4800033569336</v>
+      </c>
+      <c r="E938" t="n">
+        <v>126.2300033569336</v>
+      </c>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="n">
+        <v>78725828</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I938" t="n">
+        <v>9</v>
+      </c>
+      <c r="J938" t="n">
+        <v>16</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>38</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B939" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="C939" t="n">
+        <v>152</v>
+      </c>
+      <c r="D939" t="n">
+        <v>126.8499984741211</v>
+      </c>
+      <c r="E939" t="n">
+        <v>142.8899993896484</v>
+      </c>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="n">
+        <v>195982404</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9</v>
+      </c>
+      <c r="J939" t="n">
+        <v>23</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>39</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>1</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B940" t="n">
+        <v>146</v>
+      </c>
+      <c r="C940" t="n">
+        <v>157.6499938964844</v>
+      </c>
+      <c r="D940" t="n">
+        <v>139.1699981689453</v>
+      </c>
+      <c r="E940" t="n">
+        <v>143.5700073242188</v>
+      </c>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="n">
+        <v>153844717</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9</v>
+      </c>
+      <c r="J940" t="n">
+        <v>30</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>40</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B941" t="n">
+        <v>144.6499938964844</v>
+      </c>
+      <c r="C941" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="D941" t="n">
+        <v>134.6799926757812</v>
+      </c>
+      <c r="E941" t="n">
+        <v>153.8699951171875</v>
+      </c>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="n">
+        <v>132053671</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I941" t="n">
+        <v>10</v>
+      </c>
+      <c r="J941" t="n">
+        <v>7</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>41</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B942" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="C942" t="n">
+        <v>165</v>
+      </c>
+      <c r="D942" t="n">
+        <v>150.2200012207031</v>
+      </c>
+      <c r="E942" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="n">
+        <v>107594996</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I942" t="n">
+        <v>10</v>
+      </c>
+      <c r="J942" t="n">
+        <v>14</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>42</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B943" t="n">
+        <v>164</v>
+      </c>
+      <c r="C943" t="n">
+        <v>168.75</v>
+      </c>
+      <c r="D943" t="n">
+        <v>132.4700012207031</v>
+      </c>
+      <c r="E943" t="n">
+        <v>134.6900024414062</v>
+      </c>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="n">
+        <v>149481554</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I943" t="n">
+        <v>10</v>
+      </c>
+      <c r="J943" t="n">
+        <v>21</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>43</v>
+      </c>
+      <c r="O943" t="n">
+        <v>1</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B944" t="n">
+        <v>136.2700042724609</v>
+      </c>
+      <c r="C944" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="D944" t="n">
+        <v>129.8000030517578</v>
+      </c>
+      <c r="E944" t="n">
+        <v>141.8200073242188</v>
+      </c>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="n">
+        <v>47903737</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I944" t="n">
+        <v>10</v>
+      </c>
+      <c r="J944" t="n">
+        <v>28</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>44</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B945" t="n">
+        <v>142.0099945068359</v>
+      </c>
+      <c r="C945" t="n">
+        <v>151.4900054931641</v>
+      </c>
+      <c r="D945" t="n">
+        <v>134.5099945068359</v>
+      </c>
+      <c r="E945" t="n">
+        <v>145.8500061035156</v>
+      </c>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="n">
+        <v>49647699</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I945" t="n">
+        <v>11</v>
+      </c>
+      <c r="J945" t="n">
+        <v>4</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>45</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B946" t="n">
+        <v>145.8699951171875</v>
+      </c>
+      <c r="C946" t="n">
+        <v>147.1699981689453</v>
+      </c>
+      <c r="D946" t="n">
+        <v>128.1699981689453</v>
+      </c>
+      <c r="E946" t="n">
+        <v>129.0500030517578</v>
+      </c>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="n">
+        <v>30398044</v>
+      </c>
+      <c r="H946" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I946" t="n">
+        <v>11</v>
+      </c>
+      <c r="J946" t="n">
+        <v>11</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0</v>
+      </c>
+      <c r="L946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M946" t="n">
+        <v>0</v>
+      </c>
+      <c r="N946" t="n">
+        <v>46</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B947" t="n">
+        <v>129.8999938964844</v>
+      </c>
+      <c r="C947" t="n">
+        <v>135.9900054931641</v>
+      </c>
+      <c r="D947" t="n">
+        <v>125.3499984741211</v>
+      </c>
+      <c r="E947" t="n">
+        <v>132.9799957275391</v>
+      </c>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="n">
+        <v>31566134</v>
+      </c>
+      <c r="H947" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I947" t="n">
+        <v>11</v>
+      </c>
+      <c r="J947" t="n">
+        <v>18</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M947" t="n">
+        <v>0</v>
+      </c>
+      <c r="N947" t="n">
+        <v>47</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B948" t="n">
+        <v>135</v>
+      </c>
+      <c r="C948" t="n">
+        <v>139.4499969482422</v>
+      </c>
+      <c r="D948" t="n">
+        <v>131.4600067138672</v>
+      </c>
+      <c r="E948" t="n">
+        <v>136.4900054931641</v>
+      </c>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="n">
+        <v>27686352</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I948" t="n">
+        <v>11</v>
+      </c>
+      <c r="J948" t="n">
+        <v>25</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M948" t="n">
+        <v>0</v>
+      </c>
+      <c r="N948" t="n">
+        <v>48</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
+      <c r="R948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B949" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C949" t="n">
+        <v>142.6999969482422</v>
+      </c>
+      <c r="D949" t="n">
+        <v>134.1199951171875</v>
+      </c>
+      <c r="E949" t="n">
+        <v>139.7799987792969</v>
+      </c>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="n">
+        <v>35378816</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I949" t="n">
+        <v>12</v>
+      </c>
+      <c r="J949" t="n">
+        <v>2</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0</v>
+      </c>
+      <c r="L949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M949" t="n">
+        <v>0</v>
+      </c>
+      <c r="N949" t="n">
+        <v>49</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>2</v>
+      </c>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B950" t="n">
+        <v>140.5500030517578</v>
+      </c>
+      <c r="C950" t="n">
+        <v>148.6600036621094</v>
+      </c>
+      <c r="D950" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="E950" t="n">
+        <v>139.5200042724609</v>
+      </c>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="n">
+        <v>33309897</v>
+      </c>
+      <c r="H950" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I950" t="n">
+        <v>12</v>
+      </c>
+      <c r="J950" t="n">
+        <v>9</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M950" t="n">
+        <v>0</v>
+      </c>
+      <c r="N950" t="n">
+        <v>50</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>0</v>
+      </c>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B951" t="n">
+        <v>139.8000030517578</v>
+      </c>
+      <c r="C951" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D951" t="n">
+        <v>129</v>
+      </c>
+      <c r="E951" t="n">
+        <v>130.9400024414062</v>
+      </c>
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="n">
+        <v>14627842</v>
+      </c>
+      <c r="H951" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I951" t="n">
+        <v>12</v>
+      </c>
+      <c r="J951" t="n">
+        <v>16</v>
+      </c>
+      <c r="K951" t="n">
+        <v>0</v>
+      </c>
+      <c r="L951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M951" t="n">
+        <v>0</v>
+      </c>
+      <c r="N951" t="n">
+        <v>51</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B952" t="n">
+        <v>131.1000061035156</v>
+      </c>
+      <c r="C952" t="n">
+        <v>132.1999969482422</v>
+      </c>
+      <c r="D952" t="n">
+        <v>122.4100036621094</v>
+      </c>
+      <c r="E952" t="n">
+        <v>127.4300003051758</v>
+      </c>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="n">
+        <v>14804649</v>
+      </c>
+      <c r="H952" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I952" t="n">
+        <v>12</v>
+      </c>
+      <c r="J952" t="n">
+        <v>23</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0</v>
+      </c>
+      <c r="N952" t="n">
+        <v>52</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
+      <c r="R952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B953" t="n">
+        <v>126.7600021362305</v>
+      </c>
+      <c r="C953" t="n">
+        <v>135.2200012207031</v>
+      </c>
+      <c r="D953" t="n">
+        <v>126.2200012207031</v>
+      </c>
+      <c r="E953" t="n">
+        <v>130.2100067138672</v>
+      </c>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="n">
+        <v>16096204</v>
+      </c>
+      <c r="H953" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I953" t="n">
+        <v>12</v>
+      </c>
+      <c r="J953" t="n">
+        <v>30</v>
+      </c>
+      <c r="K953" t="n">
+        <v>0</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="n">
+        <v>0</v>
+      </c>
+      <c r="N953" t="n">
+        <v>1</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
+      <c r="R953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B954" t="n">
+        <v>130.2100067138672</v>
+      </c>
+      <c r="C954" t="n">
+        <v>130.2100067138672</v>
+      </c>
+      <c r="D954" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E954" t="n">
+        <v>118.0800018310547</v>
+      </c>
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="n">
+        <v>14937543</v>
+      </c>
+      <c r="H954" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I954" t="n">
+        <v>1</v>
+      </c>
+      <c r="J954" t="n">
+        <v>6</v>
+      </c>
+      <c r="K954" t="n">
+        <v>0</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M954" t="n">
+        <v>0</v>
+      </c>
+      <c r="N954" t="n">
+        <v>2</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B955" t="n">
+        <v>114</v>
+      </c>
+      <c r="C955" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="D955" t="n">
+        <v>111.6600036621094</v>
+      </c>
+      <c r="E955" t="n">
+        <v>117.2699966430664</v>
+      </c>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="n">
+        <v>13788785</v>
+      </c>
+      <c r="H955" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I955" t="n">
+        <v>1</v>
+      </c>
+      <c r="J955" t="n">
+        <v>13</v>
+      </c>
+      <c r="K955" t="n">
+        <v>0</v>
+      </c>
+      <c r="L955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M955" t="n">
+        <v>0</v>
+      </c>
+      <c r="N955" t="n">
+        <v>3</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P955" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>0</v>
+      </c>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B956" t="n">
+        <v>117.5500030517578</v>
+      </c>
+      <c r="C956" t="n">
+        <v>122.5800018310547</v>
+      </c>
+      <c r="D956" t="n">
+        <v>110</v>
+      </c>
+      <c r="E956" t="n">
+        <v>110.3600006103516</v>
+      </c>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="n">
+        <v>10213016</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I956" t="n">
+        <v>1</v>
+      </c>
+      <c r="J956" t="n">
+        <v>20</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>4</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B957" t="n">
+        <v>108.1999969482422</v>
+      </c>
+      <c r="C957" t="n">
+        <v>114.9000015258789</v>
+      </c>
+      <c r="D957" t="n">
+        <v>95.27999877929688</v>
+      </c>
+      <c r="E957" t="n">
+        <v>112.3099975585938</v>
+      </c>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="n">
+        <v>37151670</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I957" t="n">
+        <v>1</v>
+      </c>
+      <c r="J957" t="n">
+        <v>27</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>5</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B958" t="n">
+        <v>110.0999984741211</v>
+      </c>
+      <c r="C958" t="n">
+        <v>118.7799987792969</v>
+      </c>
+      <c r="D958" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E958" t="n">
+        <v>117.3499984741211</v>
+      </c>
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="n">
+        <v>27371698</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I958" t="n">
+        <v>2</v>
+      </c>
+      <c r="J958" t="n">
+        <v>3</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>6</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B959" t="n">
+        <v>117</v>
+      </c>
+      <c r="C959" t="n">
+        <v>117.4000015258789</v>
+      </c>
+      <c r="D959" t="n">
+        <v>95.38999938964844</v>
+      </c>
+      <c r="E959" t="n">
+        <v>98.44000244140625</v>
+      </c>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="n">
+        <v>25852024</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2</v>
+      </c>
+      <c r="J959" t="n">
+        <v>10</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>7</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B960" t="n">
+        <v>96.38999938964844</v>
+      </c>
+      <c r="C960" t="n">
+        <v>108.6100006103516</v>
+      </c>
+      <c r="D960" t="n">
+        <v>95.12000274658203</v>
+      </c>
+      <c r="E960" t="n">
+        <v>102.8199996948242</v>
+      </c>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="n">
+        <v>18218731</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2</v>
+      </c>
+      <c r="J960" t="n">
+        <v>17</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>8</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B961" t="n">
+        <v>100.8600006103516</v>
+      </c>
+      <c r="C961" t="n">
+        <v>103</v>
+      </c>
+      <c r="D961" t="n">
+        <v>91.75</v>
+      </c>
+      <c r="E961" t="n">
+        <v>92.29000091552734</v>
+      </c>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="n">
+        <v>8831202</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2</v>
+      </c>
+      <c r="J961" t="n">
+        <v>24</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>9</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
+++ b/stock_historical_data/1wk/JMFINANCIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R961"/>
+  <dimension ref="A1:R965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52379,7 +52379,9 @@
       <c r="Q927" t="n">
         <v>0</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52431,7 +52433,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52483,7 +52487,9 @@
       <c r="Q929" t="n">
         <v>1</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
@@ -52535,7 +52541,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52587,7 +52595,9 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -52639,7 +52649,9 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -52691,7 +52703,9 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -52743,7 +52757,9 @@
       <c r="Q934" t="n">
         <v>0</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52795,7 +52811,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52847,7 +52865,9 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -52899,7 +52919,9 @@
       <c r="Q937" t="n">
         <v>0</v>
       </c>
-      <c r="R937" t="inlineStr"/>
+      <c r="R937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -52951,7 +52973,9 @@
       <c r="Q938" t="n">
         <v>0</v>
       </c>
-      <c r="R938" t="inlineStr"/>
+      <c r="R938" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
@@ -53003,7 +53027,9 @@
       <c r="Q939" t="n">
         <v>1</v>
       </c>
-      <c r="R939" t="inlineStr"/>
+      <c r="R939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
@@ -53055,7 +53081,9 @@
       <c r="Q940" t="n">
         <v>0</v>
       </c>
-      <c r="R940" t="inlineStr"/>
+      <c r="R940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -53107,7 +53135,9 @@
       <c r="Q941" t="n">
         <v>0</v>
       </c>
-      <c r="R941" t="inlineStr"/>
+      <c r="R941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -53159,7 +53189,9 @@
       <c r="Q942" t="n">
         <v>0</v>
       </c>
-      <c r="R942" t="inlineStr"/>
+      <c r="R942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -53211,7 +53243,9 @@
       <c r="Q943" t="n">
         <v>0</v>
       </c>
-      <c r="R943" t="inlineStr"/>
+      <c r="R943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
@@ -53263,7 +53297,9 @@
       <c r="Q944" t="n">
         <v>0</v>
       </c>
-      <c r="R944" t="inlineStr"/>
+      <c r="R944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -53315,7 +53351,9 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
@@ -53367,7 +53405,9 @@
       <c r="Q946" t="n">
         <v>0</v>
       </c>
-      <c r="R946" t="inlineStr"/>
+      <c r="R946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -53419,7 +53459,9 @@
       <c r="Q947" t="n">
         <v>0</v>
       </c>
-      <c r="R947" t="inlineStr"/>
+      <c r="R947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -53471,7 +53513,9 @@
       <c r="Q948" t="n">
         <v>0</v>
       </c>
-      <c r="R948" t="inlineStr"/>
+      <c r="R948" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
@@ -53523,7 +53567,9 @@
       <c r="Q949" t="n">
         <v>2</v>
       </c>
-      <c r="R949" t="inlineStr"/>
+      <c r="R949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -53575,7 +53621,9 @@
       <c r="Q950" t="n">
         <v>0</v>
       </c>
-      <c r="R950" t="inlineStr"/>
+      <c r="R950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -53627,7 +53675,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53679,7 +53729,9 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -53731,7 +53783,9 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
@@ -53783,7 +53837,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53835,7 +53891,9 @@
       <c r="Q955" t="n">
         <v>0</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -53887,7 +53945,9 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -53939,7 +53999,9 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
@@ -53991,7 +54053,9 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -54043,7 +54107,9 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -54095,7 +54161,9 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -54147,7 +54215,217 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B962" t="n">
+        <v>92.29000091552734</v>
+      </c>
+      <c r="C962" t="n">
+        <v>99.47000122070312</v>
+      </c>
+      <c r="D962" t="n">
+        <v>87</v>
+      </c>
+      <c r="E962" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="n">
+        <v>15765512</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I962" t="n">
+        <v>3</v>
+      </c>
+      <c r="J962" t="n">
+        <v>3</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>10</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B963" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C963" t="n">
+        <v>98.98000335693359</v>
+      </c>
+      <c r="D963" t="n">
+        <v>87.26000213623047</v>
+      </c>
+      <c r="E963" t="n">
+        <v>89.11000061035156</v>
+      </c>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="n">
+        <v>22301984</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I963" t="n">
+        <v>3</v>
+      </c>
+      <c r="J963" t="n">
+        <v>10</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>11</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B964" t="n">
+        <v>88.61000061035156</v>
+      </c>
+      <c r="C964" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D964" t="n">
+        <v>83.59999847412109</v>
+      </c>
+      <c r="E964" t="n">
+        <v>97.83999633789062</v>
+      </c>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="n">
+        <v>32771998</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I964" t="n">
+        <v>3</v>
+      </c>
+      <c r="J964" t="n">
+        <v>17</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>12</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B965" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C965" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="D965" t="n">
+        <v>94.18000030517578</v>
+      </c>
+      <c r="E965" t="n">
+        <v>96.08999633789062</v>
+      </c>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="n">
+        <v>24910762</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I965" t="n">
+        <v>3</v>
+      </c>
+      <c r="J965" t="n">
+        <v>24</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>13</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
